--- a/我的创作/财务/股票/每日功课.xlsx
+++ b/我的创作/财务/股票/每日功课.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>表格 1</t>
   </si>
@@ -37,28 +37,7 @@
     <t>外汇市场</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大宗商品</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>大宗商品</t>
   </si>
   <si>
     <t>债券市场</t>
@@ -105,20 +84,26 @@
   <si>
     <t>原油</t>
   </si>
+  <si>
+    <t>大豆</t>
+  </si>
+  <si>
+    <t>棉花</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -162,19 +147,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -192,7 +168,44 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -200,7 +213,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,41 +259,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,29 +282,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,24 +290,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -340,7 +331,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +355,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,31 +469,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,127 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,8 +670,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,30 +732,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -750,17 +747,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,152 +769,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -951,22 +942,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,6 +979,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2164,19 +2164,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
   <cols>
-    <col min="1" max="16383" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="16.3482142857143" style="1"/>
+    <col min="1" max="16384" width="16.3482142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:19">
+    <row r="1" ht="31" customHeight="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2197,9 +2196,11 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
-      <c r="S1" s="22"/>
-    </row>
-    <row r="2" ht="22.55" customHeight="1" spans="1:19">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="25"/>
+    </row>
+    <row r="2" ht="22.55" customHeight="1" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2220,15 +2221,17 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="23"/>
-    </row>
-    <row r="3" ht="34.25" customHeight="1" spans="1:19">
+      <c r="U2" s="26"/>
+    </row>
+    <row r="3" ht="34.25" customHeight="1" spans="1:21">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -2250,14 +2253,16 @@
         <v>7</v>
       </c>
       <c r="O3" s="16"/>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
       <c r="S3" s="16"/>
-    </row>
-    <row r="4" ht="22.35" customHeight="1" spans="1:19">
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+    </row>
+    <row r="4" ht="22.35" customHeight="1" spans="1:21">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>9</v>
@@ -2301,12 +2306,18 @@
       <c r="O4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
+      <c r="P4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1" spans="1:21">
       <c r="A5" s="11">
         <v>44524</v>
       </c>
@@ -2342,8 +2353,10 @@
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1" spans="1:21">
       <c r="A6" s="11">
         <v>44525</v>
       </c>
@@ -2379,8 +2392,10 @@
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1" spans="1:21">
       <c r="A7" s="11">
         <v>44526</v>
       </c>
@@ -2402,8 +2417,10 @@
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1" spans="1:21">
       <c r="A8" s="11">
         <v>44527</v>
       </c>
@@ -2425,8 +2442,10 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1" spans="1:21">
       <c r="A9" s="11">
         <v>44528</v>
       </c>
@@ -2448,8 +2467,10 @@
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1" spans="1:21">
       <c r="A10" s="11">
         <v>44529</v>
       </c>
@@ -2471,8 +2492,10 @@
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1" spans="1:21">
       <c r="A11" s="11">
         <v>44530</v>
       </c>
@@ -2494,8 +2517,10 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1" spans="1:21">
       <c r="A12" s="11">
         <v>44531</v>
       </c>
@@ -2517,8 +2542,10 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1" spans="1:21">
       <c r="A13" s="11">
         <v>44532</v>
       </c>
@@ -2540,8 +2567,10 @@
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1" spans="1:21">
       <c r="A14" s="11">
         <v>44533</v>
       </c>
@@ -2563,8 +2592,10 @@
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1" spans="1:21">
       <c r="A15" s="11">
         <v>44534</v>
       </c>
@@ -2586,8 +2617,10 @@
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1" spans="1:21">
       <c r="A16" s="11">
         <v>44535</v>
       </c>
@@ -2609,8 +2642,10 @@
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1" spans="1:21">
       <c r="A17" s="11">
         <v>44536</v>
       </c>
@@ -2632,8 +2667,10 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1" spans="1:21">
       <c r="A18" s="11">
         <v>44537</v>
       </c>
@@ -2655,8 +2692,10 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1" spans="1:21">
       <c r="A19" s="11">
         <v>44538</v>
       </c>
@@ -2678,8 +2717,10 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
       <c r="S19" s="20"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1" spans="1:21">
       <c r="A20" s="11">
         <v>44539</v>
       </c>
@@ -2701,8 +2742,10 @@
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="20"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1" spans="1:21">
       <c r="A21" s="11">
         <v>44540</v>
       </c>
@@ -2724,8 +2767,10 @@
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1" spans="1:21">
       <c r="A22" s="11">
         <v>44541</v>
       </c>
@@ -2747,8 +2792,10 @@
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1" spans="1:21">
       <c r="A23" s="11">
         <v>44542</v>
       </c>
@@ -2770,8 +2817,10 @@
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
       <c r="S23" s="20"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1" spans="1:21">
       <c r="A24" s="11">
         <v>44543</v>
       </c>
@@ -2793,8 +2842,10 @@
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1" spans="1:21">
       <c r="A25" s="11">
         <v>44544</v>
       </c>
@@ -2816,8 +2867,10 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
       <c r="S25" s="20"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1" spans="1:21">
       <c r="A26" s="11">
         <v>44545</v>
       </c>
@@ -2839,8 +2892,10 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="20"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1" spans="1:21">
       <c r="A27" s="11">
         <v>44546</v>
       </c>
@@ -2862,8 +2917,10 @@
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
       <c r="S27" s="20"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1" spans="1:21">
       <c r="A28" s="11">
         <v>44547</v>
       </c>
@@ -2885,8 +2942,10 @@
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
       <c r="S28" s="20"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1" spans="1:21">
       <c r="A29" s="11">
         <v>44548</v>
       </c>
@@ -2908,8 +2967,10 @@
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
       <c r="S29" s="20"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1" spans="1:21">
       <c r="A30" s="11">
         <v>44549</v>
       </c>
@@ -2931,8 +2992,10 @@
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
       <c r="S30" s="20"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1" spans="1:21">
       <c r="A31" s="11">
         <v>44550</v>
       </c>
@@ -2954,8 +3017,10 @@
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1" spans="1:21">
       <c r="A32" s="11">
         <v>44551</v>
       </c>
@@ -2977,8 +3042,10 @@
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
       <c r="S32" s="20"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1" spans="1:21">
       <c r="A33" s="11">
         <v>44552</v>
       </c>
@@ -3000,8 +3067,10 @@
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
       <c r="S33" s="20"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1" spans="1:21">
       <c r="A34" s="11">
         <v>44553</v>
       </c>
@@ -3023,8 +3092,10 @@
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
       <c r="S34" s="20"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1" spans="1:21">
       <c r="A35" s="11">
         <v>44554</v>
       </c>
@@ -3046,8 +3117,10 @@
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
       <c r="S35" s="20"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1" spans="1:21">
       <c r="A36" s="11">
         <v>44555</v>
       </c>
@@ -3069,8 +3142,10 @@
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
       <c r="S36" s="20"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1" spans="1:21">
       <c r="A37" s="11">
         <v>44556</v>
       </c>
@@ -3092,8 +3167,10 @@
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
       <c r="S37" s="20"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1" spans="1:21">
       <c r="A38" s="11">
         <v>44557</v>
       </c>
@@ -3115,8 +3192,10 @@
       <c r="Q38" s="20"/>
       <c r="R38" s="20"/>
       <c r="S38" s="20"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1" spans="1:21">
       <c r="A39" s="11">
         <v>44558</v>
       </c>
@@ -3138,8 +3217,10 @@
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>
       <c r="S39" s="20"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1" spans="1:21">
       <c r="A40" s="11">
         <v>44559</v>
       </c>
@@ -3161,8 +3242,10 @@
       <c r="Q40" s="20"/>
       <c r="R40" s="20"/>
       <c r="S40" s="20"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1" spans="1:21">
       <c r="A41" s="11">
         <v>44560</v>
       </c>
@@ -3184,8 +3267,10 @@
       <c r="Q41" s="20"/>
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1" spans="1:21">
       <c r="A42" s="11">
         <v>44561</v>
       </c>
@@ -3207,8 +3292,10 @@
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
       <c r="S42" s="20"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1" spans="1:21">
       <c r="A43" s="11">
         <v>44562</v>
       </c>
@@ -3230,8 +3317,10 @@
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="20"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1" spans="1:21">
       <c r="A44" s="11">
         <v>44563</v>
       </c>
@@ -3253,8 +3342,10 @@
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
       <c r="S44" s="20"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+    </row>
+    <row r="45" ht="20.05" customHeight="1" spans="1:21">
       <c r="A45" s="11">
         <v>44564</v>
       </c>
@@ -3276,8 +3367,10 @@
       <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
       <c r="S45" s="20"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+    </row>
+    <row r="46" ht="20.05" customHeight="1" spans="1:21">
       <c r="A46" s="11">
         <v>44565</v>
       </c>
@@ -3299,8 +3392,10 @@
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="20"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+    </row>
+    <row r="47" ht="20.05" customHeight="1" spans="1:21">
       <c r="A47" s="11">
         <v>44566</v>
       </c>
@@ -3322,8 +3417,10 @@
       <c r="Q47" s="20"/>
       <c r="R47" s="20"/>
       <c r="S47" s="20"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+    </row>
+    <row r="48" ht="20.05" customHeight="1" spans="1:21">
       <c r="A48" s="11">
         <v>44567</v>
       </c>
@@ -3345,8 +3442,10 @@
       <c r="Q48" s="20"/>
       <c r="R48" s="20"/>
       <c r="S48" s="20"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+    </row>
+    <row r="49" ht="20.05" customHeight="1" spans="1:21">
       <c r="A49" s="11">
         <v>44568</v>
       </c>
@@ -3368,8 +3467,10 @@
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
       <c r="S49" s="20"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+    </row>
+    <row r="50" ht="20.05" customHeight="1" spans="1:21">
       <c r="A50" s="11">
         <v>44569</v>
       </c>
@@ -3391,8 +3492,10 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
       <c r="S50" s="20"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1" spans="1:19">
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+    </row>
+    <row r="51" ht="20.05" customHeight="1" spans="1:21">
       <c r="A51" s="11">
         <v>44570</v>
       </c>
@@ -3414,21 +3517,23 @@
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
       <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="股票市场"/>
     <hyperlink ref="I3" r:id="rId2" display="外汇市场"/>
-    <hyperlink ref="N3" r:id="rId3" display="大宗商品&#10;"/>
-    <hyperlink ref="P3" r:id="rId4" display="债券市场"/>
+    <hyperlink ref="N3" r:id="rId3" display="大宗商品"/>
+    <hyperlink ref="R3" r:id="rId4" display="债券市场"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>

--- a/我的创作/财务/股票/每日功课.xlsx
+++ b/我的创作/财务/股票/每日功课.xlsx
@@ -2166,8 +2166,8 @@
   <sheetPr/>
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
